--- a/files/Gaji_Bank_40025100_1_000620_Modif.xlsx
+++ b/files/Gaji_Bank_40025100_1_000620_Modif.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Projects\Projects2023\omsyarif\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA2F955-81BF-4F64-9C74-6B1A1A4D1FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF7F738-1E84-4225-9CE5-A4FCDDC0A125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1727,7 +1727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG46" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AG41" workbookViewId="0">
       <selection activeCell="AX2" sqref="AX2:AX55"/>
     </sheetView>
   </sheetViews>
@@ -2038,7 +2038,7 @@
         <v>40778</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.3">
@@ -2190,7 +2190,7 @@
         <v>57616</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.3">
@@ -2342,7 +2342,7 @@
         <v>57616</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.3">
@@ -2494,7 +2494,7 @@
         <v>46910</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.3">
@@ -2646,7 +2646,7 @@
         <v>54531</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.3">
@@ -2798,7 +2798,7 @@
         <v>55756</v>
       </c>
       <c r="AX7">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.3">
@@ -2950,7 +2950,7 @@
         <v>46315</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.3">
@@ -3102,7 +3102,7 @@
         <v>75683</v>
       </c>
       <c r="AX9">
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.3">
@@ -3254,7 +3254,7 @@
         <v>34401</v>
       </c>
       <c r="AX10">
-        <v>0</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.3">
@@ -3406,7 +3406,7 @@
         <v>56798</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.3">
@@ -3558,7 +3558,7 @@
         <v>51212</v>
       </c>
       <c r="AX12">
-        <v>0</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.3">
@@ -3710,7 +3710,7 @@
         <v>46769</v>
       </c>
       <c r="AX13">
-        <v>0</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.3">
@@ -3862,7 +3862,7 @@
         <v>43219</v>
       </c>
       <c r="AX14">
-        <v>0</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.3">
@@ -4014,7 +4014,7 @@
         <v>120000</v>
       </c>
       <c r="AX15">
-        <v>0</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.3">
@@ -4166,7 +4166,7 @@
         <v>49699</v>
       </c>
       <c r="AX16">
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.3">
@@ -4318,7 +4318,7 @@
         <v>38139</v>
       </c>
       <c r="AX17">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.3">
@@ -4470,7 +4470,7 @@
         <v>46769</v>
       </c>
       <c r="AX18">
-        <v>0</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.3">
@@ -4622,7 +4622,7 @@
         <v>47403</v>
       </c>
       <c r="AX19">
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.3">
@@ -4774,7 +4774,7 @@
         <v>35537</v>
       </c>
       <c r="AX20">
-        <v>0</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.3">
@@ -4926,7 +4926,7 @@
         <v>46878</v>
       </c>
       <c r="AX21">
-        <v>0</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.3">
@@ -5078,7 +5078,7 @@
         <v>34320</v>
       </c>
       <c r="AX22">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.3">
@@ -5230,7 +5230,7 @@
         <v>30598</v>
       </c>
       <c r="AX23">
-        <v>0</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.3">
@@ -5382,7 +5382,7 @@
         <v>25543</v>
       </c>
       <c r="AX24">
-        <v>0</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.3">
@@ -5534,7 +5534,7 @@
         <v>32245</v>
       </c>
       <c r="AX25">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.3">
@@ -5686,7 +5686,7 @@
         <v>28457</v>
       </c>
       <c r="AX26">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.3">
@@ -5838,7 +5838,7 @@
         <v>27644</v>
       </c>
       <c r="AX27">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.3">
@@ -5990,7 +5990,7 @@
         <v>27644</v>
       </c>
       <c r="AX28">
-        <v>0</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.3">
@@ -6142,7 +6142,7 @@
         <v>120000</v>
       </c>
       <c r="AX29">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.3">
@@ -6294,7 +6294,7 @@
         <v>120000</v>
       </c>
       <c r="AX30">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.3">
@@ -6446,7 +6446,7 @@
         <v>120000</v>
       </c>
       <c r="AX31">
-        <v>0</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.3">
@@ -6598,7 +6598,7 @@
         <v>120000</v>
       </c>
       <c r="AX32">
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.3">
@@ -6750,7 +6750,7 @@
         <v>120000</v>
       </c>
       <c r="AX33">
-        <v>0</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.3">
@@ -6902,7 +6902,7 @@
         <v>120000</v>
       </c>
       <c r="AX34">
-        <v>0</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.3">
@@ -7054,7 +7054,7 @@
         <v>120000</v>
       </c>
       <c r="AX35">
-        <v>0</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.3">
@@ -7206,7 +7206,7 @@
         <v>120000</v>
       </c>
       <c r="AX36">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.3">
@@ -7358,7 +7358,7 @@
         <v>120000</v>
       </c>
       <c r="AX37">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.3">
@@ -7510,7 +7510,7 @@
         <v>120000</v>
       </c>
       <c r="AX38">
-        <v>0</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.3">
@@ -7662,7 +7662,7 @@
         <v>120000</v>
       </c>
       <c r="AX39">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.3">
@@ -7814,7 +7814,7 @@
         <v>120000</v>
       </c>
       <c r="AX40">
-        <v>0</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.3">
@@ -7966,7 +7966,7 @@
         <v>120000</v>
       </c>
       <c r="AX41">
-        <v>0</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.3">
@@ -8118,7 +8118,7 @@
         <v>120000</v>
       </c>
       <c r="AX42">
-        <v>0</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.3">
@@ -8270,7 +8270,7 @@
         <v>120000</v>
       </c>
       <c r="AX43">
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.3">
@@ -8422,7 +8422,7 @@
         <v>120000</v>
       </c>
       <c r="AX44">
-        <v>0</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.3">
@@ -8574,7 +8574,7 @@
         <v>58326</v>
       </c>
       <c r="AX45">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.3">
@@ -8726,7 +8726,7 @@
         <v>120000</v>
       </c>
       <c r="AX46">
-        <v>0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.3">
@@ -8878,7 +8878,7 @@
         <v>120000</v>
       </c>
       <c r="AX47">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.3">
@@ -9030,7 +9030,7 @@
         <v>120000</v>
       </c>
       <c r="AX48">
-        <v>0</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.3">
@@ -9182,7 +9182,7 @@
         <v>120000</v>
       </c>
       <c r="AX49">
-        <v>0</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.3">
@@ -9334,7 +9334,7 @@
         <v>120000</v>
       </c>
       <c r="AX50">
-        <v>0</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:50" x14ac:dyDescent="0.3">
@@ -9486,7 +9486,7 @@
         <v>120000</v>
       </c>
       <c r="AX51">
-        <v>0</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:50" x14ac:dyDescent="0.3">
@@ -9638,7 +9638,7 @@
         <v>56686</v>
       </c>
       <c r="AX52">
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:50" x14ac:dyDescent="0.3">
@@ -9790,7 +9790,7 @@
         <v>53479</v>
       </c>
       <c r="AX53">
-        <v>0</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:50" x14ac:dyDescent="0.3">
@@ -9942,7 +9942,7 @@
         <v>55228</v>
       </c>
       <c r="AX54">
-        <v>0</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:50" x14ac:dyDescent="0.3">
@@ -10094,7 +10094,7 @@
         <v>46502</v>
       </c>
       <c r="AX55">
-        <v>0</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
